--- a/ImportExcel/SinhVien.xlsx
+++ b/ImportExcel/SinhVien.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinhg\source\repos\UTT_C_SHARP_AppThiTracNghiem\ImportExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\UTT_C_SHARP_AppThiTracNghiem\ImportExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0158FBB6-19F3-47B2-BC41-FF904C4FB5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A258A7C1-4F82-49D9-B14F-05BD3CF01D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19060" xr2:uid="{598F657F-1048-4F4C-B105-0694A7CEF035}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{598F657F-1048-4F4C-B105-0694A7CEF035}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
@@ -28,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -81,7 +78,7 @@
     <t>TP. HCM</t>
   </si>
   <si>
-    <t>HT001</t>
+    <t>L002</t>
   </si>
 </sst>
 </file>
@@ -419,18 +416,15 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>

--- a/ImportExcel/SinhVien.xlsx
+++ b/ImportExcel/SinhVien.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\UTT_C_SHARP_AppThiTracNghiem\ImportExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinhg\source\repos\UTT_C_SHARP_AppThiTracNghiem\ImportExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A258A7C1-4F82-49D9-B14F-05BD3CF01D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73826C9-2069-4509-B1FD-742887EBFEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{598F657F-1048-4F4C-B105-0694A7CEF035}"/>
+    <workbookView xWindow="-14264" yWindow="3532" windowWidth="26083" windowHeight="13830" xr2:uid="{598F657F-1048-4F4C-B105-0694A7CEF035}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="165">
   <si>
     <t>MaSV</t>
   </si>
@@ -51,41 +51,491 @@
     <t>QueQuan</t>
   </si>
   <si>
-    <t>MaLop</t>
-  </si>
-  <si>
-    <t>SV001</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
     <t>Nam</t>
   </si>
   <si>
     <t>Hà Nội</t>
   </si>
   <si>
-    <t>SV002</t>
-  </si>
-  <si>
-    <t>Trần Thị B</t>
-  </si>
-  <si>
     <t>Nữ</t>
   </si>
   <si>
-    <t>TP. HCM</t>
-  </si>
-  <si>
-    <t>L002</t>
+    <t>73DCHT22173</t>
+  </si>
+  <si>
+    <t>73DCHT22262</t>
+  </si>
+  <si>
+    <t>73DCHT22114</t>
+  </si>
+  <si>
+    <t>73DCHT23261</t>
+  </si>
+  <si>
+    <t>73DCHT22161</t>
+  </si>
+  <si>
+    <t>73DCHT22275</t>
+  </si>
+  <si>
+    <t>73DCHT22190</t>
+  </si>
+  <si>
+    <t>73DCHT22115</t>
+  </si>
+  <si>
+    <t>73DCHT22145</t>
+  </si>
+  <si>
+    <t>73DCHT22215</t>
+  </si>
+  <si>
+    <t>73DCHT23245</t>
+  </si>
+  <si>
+    <t>73DCHT22213</t>
+  </si>
+  <si>
+    <t>73DCHT22209</t>
+  </si>
+  <si>
+    <t>73DCHT23216</t>
+  </si>
+  <si>
+    <t>73DCHT22267</t>
+  </si>
+  <si>
+    <t>73DCHT22285</t>
+  </si>
+  <si>
+    <t>73DCHT22204</t>
+  </si>
+  <si>
+    <t>73DCHT23256</t>
+  </si>
+  <si>
+    <t>73DCHT23224</t>
+  </si>
+  <si>
+    <t>73DCHT23289</t>
+  </si>
+  <si>
+    <t>73DCHT22237</t>
+  </si>
+  <si>
+    <t>73DCHT22141</t>
+  </si>
+  <si>
+    <t>73DCTT22289</t>
+  </si>
+  <si>
+    <t>73DCHT23310</t>
+  </si>
+  <si>
+    <t>73DCHT22203</t>
+  </si>
+  <si>
+    <t>73DCHT22212</t>
+  </si>
+  <si>
+    <t>73DCHT22251</t>
+  </si>
+  <si>
+    <t>73DCHT22304</t>
+  </si>
+  <si>
+    <t>73DCHT22227</t>
+  </si>
+  <si>
+    <t>73DCHT22119</t>
+  </si>
+  <si>
+    <t>73DCHT22165</t>
+  </si>
+  <si>
+    <t>73DCHT23219</t>
+  </si>
+  <si>
+    <t>73DCHT23272</t>
+  </si>
+  <si>
+    <t>73DCHT22206</t>
+  </si>
+  <si>
+    <t>73DCHT22909</t>
+  </si>
+  <si>
+    <t>73DCHT23169</t>
+  </si>
+  <si>
+    <t>73DCHT22242</t>
+  </si>
+  <si>
+    <t>73DCHT22122</t>
+  </si>
+  <si>
+    <t>73DCHT22266</t>
+  </si>
+  <si>
+    <t>72DCOT20198</t>
+  </si>
+  <si>
+    <t>73DCHT22277</t>
+  </si>
+  <si>
+    <t>73DCHT22126</t>
+  </si>
+  <si>
+    <t>73DCHT22316</t>
+  </si>
+  <si>
+    <t>73DCHT23183</t>
+  </si>
+  <si>
+    <t>73DCHT22127</t>
+  </si>
+  <si>
+    <t>73DCHT22152</t>
+  </si>
+  <si>
+    <t>73DCHT22195</t>
+  </si>
+  <si>
+    <t>73DCHT22101</t>
+  </si>
+  <si>
+    <t>73DCHT22106</t>
+  </si>
+  <si>
+    <t>73DCHT22249</t>
+  </si>
+  <si>
+    <t>73DCHT22133</t>
+  </si>
+  <si>
+    <t>73DCHT22236</t>
+  </si>
+  <si>
+    <t>73DCHT23159</t>
+  </si>
+  <si>
+    <t>73DCHT23123</t>
+  </si>
+  <si>
+    <t>73DCHT22158</t>
+  </si>
+  <si>
+    <t>73DCHT22253</t>
+  </si>
+  <si>
+    <t>73DCHT23125</t>
+  </si>
+  <si>
+    <t>73DCHT23282</t>
+  </si>
+  <si>
+    <t>73DCHT22238</t>
+  </si>
+  <si>
+    <t>73DCHT23273</t>
+  </si>
+  <si>
+    <t>73DCHT22117</t>
+  </si>
+  <si>
+    <t>73DCHT23199</t>
+  </si>
+  <si>
+    <t>73DCHT22136</t>
+  </si>
+  <si>
+    <t>73DCHT22108</t>
+  </si>
+  <si>
+    <t>73DCHT23290</t>
+  </si>
+  <si>
+    <t>73DCHT23172</t>
+  </si>
+  <si>
+    <t>73DCHT23162</t>
+  </si>
+  <si>
+    <t>73DCHT22210</t>
+  </si>
+  <si>
+    <t>73DCHT22110</t>
+  </si>
+  <si>
+    <t>73DCHT23196</t>
+  </si>
+  <si>
+    <t>Trần Hoài An</t>
+  </si>
+  <si>
+    <t>Bạch Hoàng Mỹ Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Quốc Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hồng Anh</t>
+  </si>
+  <si>
+    <t>Nhữ Thị Ngọc Ánh</t>
+  </si>
+  <si>
+    <t>Đoàn Việt Bắc</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Bách</t>
+  </si>
+  <si>
+    <t>Nguyễn Mạnh Cường</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Đào</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Đạt</t>
+  </si>
+  <si>
+    <t>Dương Thị Kiều Diễm</t>
+  </si>
+  <si>
+    <t>Đinh Quang Đức</t>
+  </si>
+  <si>
+    <t>Hoàng Công Anh Dũng</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn Dũng</t>
+  </si>
+  <si>
+    <t>Bùi Mỹ Duyên</t>
+  </si>
+  <si>
+    <t>Đinh Đức Giang</t>
+  </si>
+  <si>
+    <t>Đoàn Văn Giang</t>
+  </si>
+  <si>
+    <t>Dương Đức Hải</t>
+  </si>
+  <si>
+    <t>Lê Quang Hải</t>
+  </si>
+  <si>
+    <t>Phạm Ngọc Hậu</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Hiếu</t>
+  </si>
+  <si>
+    <t>Nguyễn Vũ Hiếu</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hoa</t>
+  </si>
+  <si>
+    <t>Tô Việt Hoàng</t>
+  </si>
+  <si>
+    <t>Trần Duy Hoàng</t>
+  </si>
+  <si>
+    <t>Ngô Duy Hùng</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Huy</t>
+  </si>
+  <si>
+    <t>Lưu Quang Khải</t>
+  </si>
+  <si>
+    <t>Đỗ Minh Khoa</t>
+  </si>
+  <si>
+    <t>Nguyễn Thế Kiên</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Lâm</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Khánh Linh</t>
+  </si>
+  <si>
+    <t>Ngô Tiến Lộc</t>
+  </si>
+  <si>
+    <t>Bùi Đức Long</t>
+  </si>
+  <si>
+    <t>Đỗ Thanh Lực</t>
+  </si>
+  <si>
+    <t>Chu Anh Minh</t>
+  </si>
+  <si>
+    <t>Phạm Hoàng Minh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị My</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoài Nam</t>
+  </si>
+  <si>
+    <t>Phùng Đình Trọng Nam</t>
+  </si>
+  <si>
+    <t>Đào Tiến Ngọc</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồng Nhung</t>
+  </si>
+  <si>
+    <t>Đinh Thị Nụ</t>
+  </si>
+  <si>
+    <t>Hà Đình Thanh Phúc</t>
+  </si>
+  <si>
+    <t>Lê Hữu Phước</t>
+  </si>
+  <si>
+    <t>Trần Bùi Mạnh Quân</t>
+  </si>
+  <si>
+    <t>Lê Doãn Nhật Quang</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồng Sơn</t>
+  </si>
+  <si>
+    <t>Đàm Công Tâm</t>
+  </si>
+  <si>
+    <t>Lưu Tiến Tâm</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Tâm</t>
+  </si>
+  <si>
+    <t>Đoàn Văn Thái</t>
+  </si>
+  <si>
+    <t>Đặng Quốc Thắng</t>
+  </si>
+  <si>
+    <t>Nguyễn Tất Thắng</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Thao</t>
+  </si>
+  <si>
+    <t>Chu Tuấn Thịnh</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Thông</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thu</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thu Thủy</t>
+  </si>
+  <si>
+    <t>Lê Ngọc Anh Tô</t>
+  </si>
+  <si>
+    <t>Nguyễn Công Toàn</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Tú</t>
+  </si>
+  <si>
+    <t>Nguyễn Mạnh Tuấn</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Tùng</t>
+  </si>
+  <si>
+    <t>Phạm Thị Vân</t>
+  </si>
+  <si>
+    <t>Vương Đắc Hải Vang</t>
+  </si>
+  <si>
+    <t>Hoàng Như Việt</t>
+  </si>
+  <si>
+    <t>Đinh Công Vinh</t>
+  </si>
+  <si>
+    <t>Đào Tuấn Vũ</t>
+  </si>
+  <si>
+    <t>Thái Bình</t>
+  </si>
+  <si>
+    <t>Hà Nam</t>
+  </si>
+  <si>
+    <t>Lào Cai</t>
+  </si>
+  <si>
+    <t>Bắc Giang</t>
+  </si>
+  <si>
+    <t>Phú Thọ</t>
+  </si>
+  <si>
+    <t>Nam Định</t>
+  </si>
+  <si>
+    <t>Hưng Yên</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>Ninh Bình</t>
+  </si>
+  <si>
+    <t>Thanh Hoá</t>
+  </si>
+  <si>
+    <t>Bac Giang</t>
+  </si>
+  <si>
+    <t>Bắc Ninh</t>
+  </si>
+  <si>
+    <t>Tuyên Quang</t>
+  </si>
+  <si>
+    <t>Hưng yên</t>
+  </si>
+  <si>
+    <t>Hà nội</t>
+  </si>
+  <si>
+    <t>Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>Hải Dương</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +551,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -110,7 +574,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -118,21 +582,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,80 +909,1298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4493F3-D16E-4CDF-A8FC-13974AAF6452}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="26.375" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="D2" s="9">
         <v>36526</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9">
+        <v>36965</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="10">
+        <v>38174</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="10">
+        <v>38055</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10">
+        <v>37626</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="10">
+        <v>38031</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3">
-        <v>36965</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10">
+        <v>37702</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10">
+        <v>38086</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="10">
+        <v>37758</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="10">
+        <v>38144</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="10">
+        <v>37827</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="10">
+        <v>38210</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="10">
+        <v>37867</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="10">
+        <v>38279</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="10">
+        <v>37933</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="10">
+        <v>38351</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="10">
+        <v>37634</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="10">
+        <v>38043</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="10">
+        <v>37695</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="10">
+        <v>38079</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="10">
+        <v>37769</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="10">
+        <v>38154</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="10">
+        <v>37809</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="10">
+        <v>38222</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="10">
+        <v>37878</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="10">
+        <v>38261</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="10">
+        <v>37946</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="10">
+        <v>38333</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="10">
+        <v>37625</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="10">
+        <v>38035</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="10">
+        <v>37686</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="10">
+        <v>38102</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="10">
+        <v>37751</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="10">
+        <v>38167</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="10">
+        <v>37626</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="10">
+        <v>38031</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="10">
+        <v>37702</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="10">
+        <v>38086</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="10">
+        <v>37758</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="10">
+        <v>38144</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="10">
+        <v>37827</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="10">
+        <v>38210</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="10">
+        <v>37867</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="10">
+        <v>38279</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="10">
+        <v>37933</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="10">
+        <v>38351</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="10">
+        <v>37634</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="10">
+        <v>38043</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="10">
+        <v>37695</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="10">
+        <v>38079</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="10">
+        <v>37769</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="10">
+        <v>38154</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="10">
+        <v>37809</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="10">
+        <v>38222</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="10">
+        <v>37878</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" ht="16.3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="10">
+        <v>38261</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="10">
+        <v>37946</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="10">
+        <v>38333</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="10">
+        <v>37625</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="10">
+        <v>38035</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="10">
+        <v>37686</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="10">
+        <v>38102</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="10">
+        <v>37751</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="10">
+        <v>38167</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="10">
+        <v>38102</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="10">
+        <v>37751</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="10">
+        <v>38167</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="10">
+        <v>38102</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="10">
+        <v>37751</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="10">
+        <v>38167</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
